--- a/PccuClub/Template/活動績效管理_template.xlsx
+++ b/PccuClub/Template/活動績效管理_template.xlsx
@@ -112,11 +112,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -401,15 +407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="20" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="39" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="34.28515625" customWidth="1"/>
@@ -428,7 +436,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -446,6 +454,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
+      <formula1>"未舉辦,已舉辦,取消"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PccuClub/Template/活動績效管理_template.xlsx
+++ b/PccuClub/Template/活動績效管理_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,19 +411,19 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="20" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="20" style="2" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="39" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,9 +454,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F198">
       <formula1>"未舉辦,已舉辦,取消"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"演講, 競賽, 研習營, 會議, 晚會, 表演, 展覽(含周展), 服務, 教學, 全校性"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
